--- a/src/test/resources/data_sheet.xlsx
+++ b/src/test/resources/data_sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omera\IdeaProjects\Batch197-198\Cucumber-main\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omera\IdeaProjects\mycucumberproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2704EE1C-F8FF-4355-9CCF-AD8BF70C085E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2000282-970B-4BD1-8EC9-510A0A04D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="1890" windowWidth="19290" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_data" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,6 +270,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -494,7 +497,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -535,7 +538,7 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="11">
         <v>52345</v>
       </c>
       <c r="F2" s="3" t="s">
